--- a/数据整理/stocks/A股/深证主板/002271-东方雨虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002271-东方雨虹.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14360,7 +14361,6 @@
           <t>国融融盛龙头严选混合C</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
           <t>91.86</t>
@@ -14392,7 +14392,6 @@
           <t>汇添富价值精选混合O</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
           <t>84.28</t>
@@ -14424,7 +14423,6 @@
           <t>东吴行业轮动混合C</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
           <t>85.54</t>
@@ -14440,6 +14438,7122 @@
       </c>
       <c r="H243" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H187"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>369.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.8781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>167.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.9653</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>221.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.4749</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>115.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.8947</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天益价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>134.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.8568</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.0890</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.9753</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.7011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>131.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.8549</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.7762</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010357</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.5890</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.3450</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009550</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>96.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.0638</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.0174</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>95.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.8668</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000527</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>68.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.7837</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.6743</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>67.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.5689</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.5588</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>55.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.2763</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.2477</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001053</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方创新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>51.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.1277</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>45.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.7839</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.7100</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.6599</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.4856</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>45.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.4149</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.3551</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.3456</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.3347</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>40.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.2236</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.2172</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.2079</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.1945</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.1641</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.0520</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.0455</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.0424</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>30.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8615</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8292</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8165</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8009</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7920</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7191</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7080</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005742</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方成安优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6937</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6851</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6783</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.6583</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.6113</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5971</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5901</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5727</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009551</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>17.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5573</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5199</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4954</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4882</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010358</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4734</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4328</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4167</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3942</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3814</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3780</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3406</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3086</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>51.96</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3066</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3044</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006223</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>交银施罗德创新成长混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>79.11</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>69.35</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006590</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009475</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇丰晋信慧盈混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>49.41</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>61.73</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>54.40</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>56.66</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011307</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>富国天益价值混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>167601</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>国金沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>32.57</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>001947</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>002845</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>32.57</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合O</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002271-东方雨虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002271-东方雨虹.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21559,4 +21560,4124 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>341.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.9119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>159.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8680</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天益价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>108.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4534</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>129.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3692</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.3185</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3342</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>96.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.0475</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8619</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009550</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>71.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4905</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3188</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2274</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1769</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0149</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9299</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>45.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>46.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7863</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>48.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6854</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6361</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>45.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6095</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4888</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4219</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3986</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3713</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3444</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1632</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1193</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0633</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8870</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8865</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8794</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8384</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7625</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7189</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6695</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6484</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6406</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5994</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5835</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4590</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4559</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009551</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4478</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>69.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4022</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3973</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3803</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3624</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>46.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>70.17</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000065</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国富焦点驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>30.59</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011307</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国天益价值混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003848</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>30.59</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159944</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发中证全指原材料ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003849</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中银广利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002271-东方雨虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002271-东方雨虹.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25680,4 +25681,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>107</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99.84999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>186</v>
+      </c>
+      <c r="D3" t="n">
+        <v>154.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>242</v>
+      </c>
+      <c r="D4" t="n">
+        <v>188.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>124</v>
+      </c>
+      <c r="D5" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002271-东方雨虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002271-东方雨虹.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25689,7 +25690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25700,17 +25701,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -25720,14 +25741,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>107</v>
-      </c>
-      <c r="D2" t="n">
-        <v>99.84999999999999</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>126.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -25736,14 +25779,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>186</v>
-      </c>
-      <c r="D3" t="n">
-        <v>154.86</v>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>187.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7279</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -25752,14 +25817,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>242</v>
-      </c>
-      <c r="D4" t="n">
-        <v>188.4</v>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天益价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>103.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4829</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -25768,13 +25855,8507 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5479</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.4286</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>62.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.5290</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1966</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.1490</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>59.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.8513</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>48.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5641</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4282</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>66.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3737</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3578</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>112.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3560</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.1612</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.0802</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.0778</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.0451</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010289</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城产业趋势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.9292</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.9246</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.8957</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.8550</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>59.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.8100</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.6400</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5795</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>48.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.5685</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.3418</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>46.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.2672</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.2381</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1469</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0927</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0546</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0476</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.0115</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9680</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9670</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.9173</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.9039</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8626</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8547</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.8528</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.8211</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.8145</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.8084</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.7379</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.7297</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>33.41</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.7283</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.6802</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.6773</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>19.54</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.6057</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5909</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5778</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5624</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5533</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5476</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.5325</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>19.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.5078</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4974</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4600</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3652</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3590</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.66</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏中小企业板ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>516890</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>平安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159763</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>建信中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>012826</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>工银聚宁9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>159703</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>天弘中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>516480</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国联安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>48.86</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>516710</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华夏中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011307</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>富国天益价值混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>75.82</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>易方达中小板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>广发中小板300ETF</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>33.22</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>012827</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>工银聚宁9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>004774</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>汇添富添福吉祥混合</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>004801</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28.37</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合O</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>004802</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>224</v>
+      </c>
+      <c r="D2" t="n">
+        <v>130.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>107</v>
+      </c>
+      <c r="D3" t="n">
+        <v>99.84999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>186</v>
+      </c>
+      <c r="D4" t="n">
+        <v>154.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>242</v>
+      </c>
+      <c r="D5" t="n">
+        <v>188.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>124</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>105.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002271-东方雨虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002271-东方雨虹.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -34254,7 +34255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34265,17 +34266,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -34285,14 +34306,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>224</v>
-      </c>
-      <c r="D2" t="n">
-        <v>130.12</v>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>280.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.1911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -34301,14 +34344,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>107</v>
-      </c>
-      <c r="D3" t="n">
-        <v>99.84999999999999</v>
+          <t>161005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>405.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.8329</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -34317,14 +34382,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>186</v>
-      </c>
-      <c r="D4" t="n">
-        <v>154.86</v>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>141.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.0037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -34333,14 +34420,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>242</v>
-      </c>
-      <c r="D5" t="n">
-        <v>188.4</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.9538</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -34349,13 +34458,8865 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>147.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.7905</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天益价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.5282</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.2925</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>114.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.6851</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>111.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.5685</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.1977</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.8811</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7263</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4368</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009550</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>50.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3198</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.2696</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.2601</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010289</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城产业趋势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.1488</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.1138</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.1138</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.0402</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.9223</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.8348</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.8329</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.8329</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.7585</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003940</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.7057</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5358</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.5050</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.3645</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.3507</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.2982</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.2342</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.1909</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.1710</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.1673</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>61.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.1649</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.0915</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.0827</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.0792</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>41.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.0790</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014585</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.0760</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005543</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.0267</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.9779</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.9534</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.9046</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.8996</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.8982</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.8886</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.8862</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.8607</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.8238</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.8043</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010348</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>景顺长城泰保三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.7576</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.7352</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.7134</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.7104</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.6933</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.6895</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.6856</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.6456</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.6365</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.6279</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.6222</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.5801</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.5644</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.5617</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.5530</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.5450</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.5450</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.5437</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003494</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国天惠成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.5389</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.5162</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.5045</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>14.74</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.4864</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.4585</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>70.71</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.4046</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009551</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.4039</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.3885</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.3770</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.3648</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>27.81</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008308</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华夏见龙精选混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>014586</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012826</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>工银聚宁9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014107</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>159761</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国泰中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>71.79</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>31.82</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011307</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>富国天益价值混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>516710</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华夏中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>159763</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>建信中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>96.90</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>27.81</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>159703</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>天弘中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>516890</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>平安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>65.07</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>012827</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>工银聚宁9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>516480</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>国联安中证新材料主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>014108</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>博时品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>69.12</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>31.82</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>290010</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>泰信中证200指数基金</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合O</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>234</v>
+      </c>
+      <c r="D2" t="n">
+        <v>166.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>224</v>
+      </c>
+      <c r="D3" t="n">
+        <v>130.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>107</v>
+      </c>
+      <c r="D4" t="n">
+        <v>99.84999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>186</v>
+      </c>
+      <c r="D5" t="n">
+        <v>154.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>242</v>
+      </c>
+      <c r="D6" t="n">
+        <v>188.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>124</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>105.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002271-东方雨虹.xlsx
+++ b/数据整理/stocks/A股/深证主板/002271-东方雨虹.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>279</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>172.89</v>
+        <v>39.59</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="D3" t="n">
-        <v>166.78</v>
+        <v>172.89</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D4" t="n">
-        <v>130.12</v>
+        <v>166.78</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="D5" t="n">
-        <v>99.84999999999999</v>
+        <v>130.12</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="D6" t="n">
-        <v>154.86</v>
+        <v>99.84999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="D7" t="n">
-        <v>188.4</v>
+        <v>154.86</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>242</v>
+      </c>
+      <c r="D8" t="n">
+        <v>188.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>124</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>105.5</v>
       </c>
     </row>
@@ -600,6 +617,3934 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>242.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7052</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>121.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6313</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8986</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5658</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5265</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1728</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7952</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7497</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7315</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7107</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6976</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5942</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5911</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5845</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>562990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5561</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5103</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4510</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4207</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159639</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>561190</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3509</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3479</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3016</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银国家战略股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>560550</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2458</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013559</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015699</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159641</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>560060</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159640</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013934</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长江红利回报混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159642</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>大成中证上海环交所碳中和ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516710</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516360</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159763</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>51.28</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014096</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005080</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>海富通量化多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008830</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>海富通安益对冲混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008831</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>海富通安益对冲混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159703</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天弘中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005081</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>海富通量化多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>516890</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平安中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012562</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>天弘中证新材料指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013560</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013935</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长江红利回报混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015700</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>970090</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>安信资管瑞丰6个月持有债券A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>69.89</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012561</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>天弘中证新材料指数A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>51.28</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516480</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国联安中证新材料主题ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>970092</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>安信资管瑞丰6个月持有债券C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>970091</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>安信资管瑞丰6个月持有债券B</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>519222</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>015365</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中银动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>519221</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014537</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>69.89</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11251,7 +15196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20195,7 +24140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28759,7 +32704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32879,7 +36824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -39995,7 +43940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -49226,7 +53171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
